--- a/xlsx/tests/calc_tests/UNICODE.xlsx
+++ b/xlsx/tests/calc_tests/UNICODE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\bruno\repos\IronCalc\xlsx\tests\calc_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7EE194-0CBA-49CD-B354-7FD08989E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08DBBE4-B12B-4A58-9357-190016C812F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="4" activeTab="4" xr2:uid="{BE6270EA-F85F-4848-9581-55FBBFCF4D5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{BE6270EA-F85F-4848-9581-55FBBFCF4D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="DS_INTERNAL_SETTINGS_STORAGE" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>TEXT</t>
   </si>
@@ -100,13 +100,28 @@
   </si>
   <si>
     <t>ꬄ</t>
+  </si>
+  <si>
+    <t>Error cases</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>ش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صش </t>
+  </si>
+  <si>
+    <t>شغ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,16 +150,36 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,11 +187,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,8 +216,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,10 +723,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC53CDA4-C07E-EE4C-AD72-581007D9709D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -698,7 +752,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <f>_xlfn.UNICODE(A2)</f>
         <v>32</v>
       </c>
@@ -707,8 +761,8 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B10" si="0">_xlfn.UNICODE(A3)</f>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B15" si="0">_xlfn.UNICODE(A3)</f>
         <v>49</v>
       </c>
     </row>
@@ -716,7 +770,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -725,7 +779,7 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -734,27 +788,27 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="b">
+      <c r="A7" s="6" t="b">
         <f>(1=1)</f>
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="6" t="b">
         <f>(1=2)</f>
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -765,7 +819,7 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>12398</v>
       </c>
@@ -776,7 +830,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>43780</v>
       </c>
@@ -784,44 +838,118 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>1588</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>1589</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>1588</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="6">
+        <f>40+120</f>
+        <v>160</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6" t="e">
+        <f>_xlfn.UNICODE(A18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="e">
+        <f>B18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="6" t="e">
+        <f t="shared" ref="B19:B21" si="1">_xlfn.UNICODE(A19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B20" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B21" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
